--- a/仕様書/会社評価システム仕様書.xlsx
+++ b/仕様書/会社評価システム仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F7AE32-D871-405A-8D3D-0E91C372D356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA4894-4A5E-48D8-98F7-503BA3992863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{678DCB2D-7430-41AD-A8D2-C35F7A52921E}"/>
   </bookViews>
@@ -769,43 +769,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -826,22 +805,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,10 +862,40 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -8288,8 +8288,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -8307,7 +8307,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8286750" y="1428750"/>
-          <a:ext cx="4381500" cy="2047875"/>
+          <a:ext cx="4762500" cy="2047875"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8350,7 +8350,7 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>①のテーブルを押下すると押下した行の社員データを取得可能</a:t>
+            <a:t>①のテーブルを押下すると押下した行の会社評価のデータを取得可能</a:t>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -9941,7 +9941,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・社員番号を入力していない場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内容を入力していない場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -9959,7 +9971,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・氏名を入力していない場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>内容が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>200</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字以上の場合</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -9977,7 +10025,31 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・すでに登録されている社員番号を登録する場合</a:t>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>が</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -12701,162 +12773,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
     </row>
     <row r="2" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="78">
         <v>45177</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
     <row r="6" spans="1:50" ht="18.75" customHeight="1">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="68"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="61" t="s">
+      <c r="T6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="63"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="53"/>
     </row>
     <row r="7" spans="1:50" ht="18.75" customHeight="1">
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="71"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="7"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="66"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="56"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -12906,22 +12978,22 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="11"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="49" t="s">
+      <c r="T9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="73"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="63"/>
       <c r="Y9" s="2"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="49" t="s">
+      <c r="AC9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="51"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="44"/>
     </row>
     <row r="10" spans="1:50" ht="18.75" customHeight="1">
       <c r="D10" s="10"/>
@@ -12940,20 +13012,20 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="13"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="76"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="66"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="52"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="54"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="47"/>
     </row>
     <row r="11" spans="1:50" ht="18.75" customHeight="1">
       <c r="D11" s="10"/>
@@ -12986,39 +13058,39 @@
       <c r="O12" s="10"/>
       <c r="Q12" s="12"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="61" t="s">
+      <c r="T12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="63"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="53"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="49" t="s">
+      <c r="AC12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="51"/>
+      <c r="AD12" s="43"/>
+      <c r="AE12" s="43"/>
+      <c r="AF12" s="43"/>
+      <c r="AG12" s="44"/>
     </row>
     <row r="13" spans="1:50" ht="18.75" customHeight="1">
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="66"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="56"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="54"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="47"/>
     </row>
     <row r="14" spans="1:50" ht="18.75" customHeight="1">
       <c r="E14" s="15"/>
@@ -13112,22 +13184,22 @@
       <c r="K18" s="15"/>
       <c r="Q18" s="12"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="49" t="s">
+      <c r="T18" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="51"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="44"/>
       <c r="Y18" s="2"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="49" t="s">
+      <c r="AH18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="51"/>
+      <c r="AI18" s="43"/>
+      <c r="AJ18" s="43"/>
+      <c r="AK18" s="43"/>
+      <c r="AL18" s="44"/>
       <c r="AX18" s="12"/>
     </row>
     <row r="19" spans="4:63" ht="18.75" customHeight="1">
@@ -13135,11 +13207,11 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="14"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="54"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="47"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
@@ -13149,11 +13221,11 @@
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
       <c r="AG19" s="8"/>
-      <c r="AH19" s="52"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="54"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="47"/>
       <c r="AX19" s="12"/>
     </row>
     <row r="20" spans="4:63" ht="18.75" customHeight="1">
@@ -13192,31 +13264,31 @@
       <c r="S24" s="17"/>
       <c r="U24" s="12"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="49" t="s">
+      <c r="AH24" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AI24" s="50"/>
-      <c r="AJ24" s="50"/>
-      <c r="AK24" s="50"/>
-      <c r="AL24" s="51"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="44"/>
       <c r="AM24" s="2"/>
       <c r="AV24" s="5"/>
-      <c r="AW24" s="49" t="s">
+      <c r="AW24" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="50"/>
-      <c r="AZ24" s="50"/>
-      <c r="BA24" s="51"/>
+      <c r="AX24" s="43"/>
+      <c r="AY24" s="43"/>
+      <c r="AZ24" s="43"/>
+      <c r="BA24" s="44"/>
       <c r="BB24" s="2"/>
       <c r="BF24" s="5"/>
-      <c r="BG24" s="55" t="s">
+      <c r="BG24" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="BH24" s="56"/>
-      <c r="BI24" s="56"/>
-      <c r="BJ24" s="56"/>
-      <c r="BK24" s="57"/>
+      <c r="BH24" s="37"/>
+      <c r="BI24" s="37"/>
+      <c r="BJ24" s="37"/>
+      <c r="BK24" s="38"/>
     </row>
     <row r="25" spans="4:63" ht="18.75" customHeight="1">
       <c r="D25" s="4"/>
@@ -13236,11 +13308,11 @@
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
       <c r="AG25" s="8"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="53"/>
-      <c r="AL25" s="54"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="47"/>
       <c r="AM25" s="6"/>
       <c r="AN25" s="14"/>
       <c r="AO25" s="14"/>
@@ -13251,21 +13323,21 @@
       <c r="AT25" s="14"/>
       <c r="AU25" s="14"/>
       <c r="AV25" s="8"/>
-      <c r="AW25" s="52"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="53"/>
-      <c r="BA25" s="54"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="46"/>
+      <c r="AY25" s="46"/>
+      <c r="AZ25" s="46"/>
+      <c r="BA25" s="47"/>
       <c r="BB25" s="6"/>
       <c r="BC25" s="14"/>
       <c r="BD25" s="14"/>
       <c r="BE25" s="14"/>
       <c r="BF25" s="8"/>
-      <c r="BG25" s="58"/>
-      <c r="BH25" s="59"/>
-      <c r="BI25" s="59"/>
-      <c r="BJ25" s="59"/>
-      <c r="BK25" s="60"/>
+      <c r="BG25" s="39"/>
+      <c r="BH25" s="40"/>
+      <c r="BI25" s="40"/>
+      <c r="BJ25" s="40"/>
+      <c r="BK25" s="41"/>
     </row>
     <row r="26" spans="4:63" ht="18.75" customHeight="1">
       <c r="D26" s="4"/>
@@ -13309,38 +13381,38 @@
     <row r="30" spans="4:63" ht="18.75" customHeight="1">
       <c r="Q30" s="12"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="49" t="s">
+      <c r="T30" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="51"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="44"/>
       <c r="Y30" s="2"/>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="55" t="s">
+      <c r="AH30" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AI30" s="56"/>
-      <c r="AJ30" s="56"/>
-      <c r="AK30" s="56"/>
-      <c r="AL30" s="57"/>
+      <c r="AI30" s="37"/>
+      <c r="AJ30" s="37"/>
+      <c r="AK30" s="37"/>
+      <c r="AL30" s="38"/>
     </row>
     <row r="31" spans="4:63" ht="18.75" customHeight="1">
       <c r="J31" s="25"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="78"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
       <c r="P31" s="26"/>
       <c r="R31" s="14"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="52"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="54"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="47"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
@@ -13350,32 +13422,32 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
       <c r="AG31" s="8"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
-      <c r="AK31" s="59"/>
-      <c r="AL31" s="60"/>
+      <c r="AH31" s="39"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="40"/>
+      <c r="AL31" s="41"/>
       <c r="AM31" s="33"/>
     </row>
     <row r="32" spans="4:63" ht="18.75" customHeight="1">
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
     </row>
     <row r="33" spans="10:38" ht="18.75" customHeight="1"/>
     <row r="34" spans="10:38" ht="18.75" customHeight="1"/>
     <row r="35" spans="10:38" ht="18.75" customHeight="1"/>
     <row r="36" spans="10:38" ht="18.75" customHeight="1">
       <c r="AG36" s="5"/>
-      <c r="AH36" s="49" t="s">
+      <c r="AH36" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AI36" s="50"/>
-      <c r="AJ36" s="50"/>
-      <c r="AK36" s="50"/>
-      <c r="AL36" s="51"/>
+      <c r="AI36" s="43"/>
+      <c r="AJ36" s="43"/>
+      <c r="AK36" s="43"/>
+      <c r="AL36" s="44"/>
     </row>
     <row r="37" spans="10:38" ht="18.75" customHeight="1">
       <c r="Z37" s="14"/>
@@ -13386,27 +13458,27 @@
       <c r="AE37" s="14"/>
       <c r="AF37" s="14"/>
       <c r="AG37" s="8"/>
-      <c r="AH37" s="52"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="54"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="47"/>
     </row>
     <row r="38" spans="10:38" ht="18.75" customHeight="1">
       <c r="J38" s="27"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="48"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
       <c r="P38" s="34"/>
     </row>
     <row r="39" spans="10:38" ht="18.75" customHeight="1">
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
     </row>
     <row r="40" spans="10:38" ht="18.75" customHeight="1"/>
     <row r="41" spans="10:38" ht="18.75" customHeight="1"/>
@@ -13420,12 +13492,15 @@
     <row r="49" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="BG24:BK25"/>
-    <mergeCell ref="T18:X19"/>
-    <mergeCell ref="AH18:AL19"/>
-    <mergeCell ref="K31:O32"/>
-    <mergeCell ref="AH24:AL25"/>
-    <mergeCell ref="AW24:BA25"/>
+    <mergeCell ref="A1:F4"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:T3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:T4"/>
     <mergeCell ref="K38:O39"/>
     <mergeCell ref="T30:X31"/>
     <mergeCell ref="AH30:AL31"/>
@@ -13437,15 +13512,12 @@
     <mergeCell ref="T12:X13"/>
     <mergeCell ref="AC12:AG13"/>
     <mergeCell ref="AH36:AL37"/>
-    <mergeCell ref="A1:F4"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:T1"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:T3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:T4"/>
+    <mergeCell ref="BG24:BK25"/>
+    <mergeCell ref="T18:X19"/>
+    <mergeCell ref="AH18:AL19"/>
+    <mergeCell ref="K31:O32"/>
+    <mergeCell ref="AH24:AL25"/>
+    <mergeCell ref="AW24:BA25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13465,106 +13537,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="78">
         <v>45177</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13595,106 +13667,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="78">
         <v>45177</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -13725,106 +13797,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="78">
         <v>45177</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
     <row r="17" customFormat="1"/>
     <row r="18" customFormat="1"/>
@@ -13887,106 +13959,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="78">
         <v>45177</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14010,113 +14082,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF045AE3-38CF-4549-921F-93CBC539901C}">
   <dimension ref="A1:EH54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI12" workbookViewId="0">
-      <selection activeCell="DT38" sqref="DT38"/>
+    <sheetView tabSelected="1" topLeftCell="BF37" workbookViewId="0">
+      <selection activeCell="CM38" sqref="CM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="78">
         <v>45177</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
     <row r="43" spans="121:138">
       <c r="DQ43" t="s">
@@ -14163,106 +14235,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="78">
         <v>45177</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -14292,106 +14364,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="78">
         <v>45177</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
     <row r="96549" spans="1:6">
       <c r="A96549" s="79"/>
@@ -14455,106 +14527,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="45" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="39"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="45" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="47">
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="78">
         <v>45177</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="45" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="46"/>
-      <c r="T3" s="46"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/仕様書/会社評価システム仕様書.xlsx
+++ b/仕様書/会社評価システム仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3710B74A-C25B-470A-96C3-05DAEB64C2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6441F9-5253-44DC-933E-A5158CA9581A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{678DCB2D-7430-41AD-A8D2-C35F7A52921E}"/>
   </bookViews>
@@ -22,8 +22,8 @@
     <sheet name="自己評価管理" sheetId="9" r:id="rId7"/>
     <sheet name="給与テーブル" sheetId="4" r:id="rId8"/>
     <sheet name="評価実施" sheetId="5" r:id="rId9"/>
-    <sheet name="会社評価" sheetId="10" r:id="rId10"/>
-    <sheet name="自己評価" sheetId="11" r:id="rId11"/>
+    <sheet name="自己評価" sheetId="11" r:id="rId10"/>
+    <sheet name="会社評価" sheetId="10" r:id="rId11"/>
     <sheet name="結果" sheetId="12" r:id="rId12"/>
     <sheet name="評価出力" sheetId="13" r:id="rId13"/>
     <sheet name="確認" sheetId="14" r:id="rId14"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="26">
   <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="2">
@@ -423,7 +423,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,6 +445,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,97 +814,55 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,6 +899,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1577,780 +1613,6 @@
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AD06F5-1A1A-826E-A9FE-30766E438E4E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="9590" b="6490"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="314325" y="1228725"/>
-          <a:ext cx="7772400" cy="3667125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="43000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE30C15-23A9-4DAD-A864-C447DEC36489}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8286750" y="1428750"/>
-          <a:ext cx="4343400" cy="2047875"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>①</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>のチェックボックスを押下してポイントを付与</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>選択した</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>資格</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の行は背景色が緑色になります</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>前回選択していた</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>資格</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>の行は背景色が黄色になっています</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>②のボタンを押下して</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>評価実施</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>画面に遷移</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:effectLst/>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>のボタンを押下して</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>自己評価</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>画面に遷移</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19467D31-A4DE-48AB-B9FF-E54191E0C691}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="400050" y="4619625"/>
-          <a:ext cx="1085850" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA92A271-43DE-4B63-BB35-EB5E9141CBC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1400174" y="4400550"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C075064-E97C-45E7-9A54-7EDF2AEE93EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6772275" y="4619625"/>
-          <a:ext cx="1085850" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F08129-4B98-4153-8754-751AE6AF710B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7772399" y="4400550"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FA12F7-80DE-44A1-9CCF-0F87D62890FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="1981200"/>
-          <a:ext cx="276225" cy="2114550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="325730" cy="328423"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EB6611-C8BF-4675-9AAB-A3ED86DC6AB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1428749" y="1790700"/>
-          <a:ext cx="325730" cy="328423"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>30</xdr:col>
@@ -4589,6 +3851,832 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AD06F5-1A1A-826E-A9FE-30766E438E4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="9590" b="6490"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="314325" y="1228725"/>
+          <a:ext cx="7772400" cy="3667125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE30C15-23A9-4DAD-A864-C447DEC36489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="1428750"/>
+          <a:ext cx="4343400" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のチェックボックスを押下してポイントを付与</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>選択した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>資格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の行は背景色が緑色になります</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>前回選択していた</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>資格</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の行は背景色が黄色になっています</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>②のボタンを押下して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>評価実施</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>画面に遷移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のボタンを押下して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>自己評価</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面に遷移</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19467D31-A4DE-48AB-B9FF-E54191E0C691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="4619625"/>
+          <a:ext cx="1085850" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA92A271-43DE-4B63-BB35-EB5E9141CBC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1400174" y="4400550"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C075064-E97C-45E7-9A54-7EDF2AEE93EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772275" y="4619625"/>
+          <a:ext cx="1085850" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F08129-4B98-4153-8754-751AE6AF710B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772399" y="4400550"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FA12F7-80DE-44A1-9CCF-0F87D62890FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="1981200"/>
+          <a:ext cx="276225" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52EB6611-C8BF-4675-9AAB-A3ED86DC6AB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428749" y="1790700"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5897,42 +5985,63 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t>選択した</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t>[</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t>社員</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t>]</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t>の行は背景色が黄色になります</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -9587,6 +9696,145 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月末までは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日として扱う</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月末までは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日として扱う</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -23690,23 +23938,7 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>①のボタンを押下して</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>[</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面選択</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>画面に遷移</a:t>
+            <a:t>①のボタンを押下して最低賃金変更ボタンを表示</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -23729,18 +23961,111 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>のボタンを押下して</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面選択</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>画面に遷移</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t>※</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t>給与テーブルの背景色がグレーの箇所は愛知県の最低賃金を下回っている場合のものです</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -23869,7 +24194,749 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F67D9B36-D598-4F84-A792-4627E8C1C95C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3609975" y="5114925"/>
+          <a:ext cx="1085850" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="二等辺三角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CDF1D5-8E11-4D89-92A7-762D3004BDC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2628900" y="8220075"/>
+          <a:ext cx="3028950" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3F84BA-3669-45C4-BD76-FD081004AE5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="7400925"/>
+          <a:ext cx="1762125" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>①ボタン押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE86BDF8-9403-8243-0BFE-AE843B378ADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="10026" b="7144"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="9163051"/>
+          <a:ext cx="7772400" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB620295-3D9A-4E53-BC52-FC9CDD6D185E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1571625" y="1438275"/>
+          <a:ext cx="352425" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="323851" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3515E03-4216-45BE-8F97-F7E1FD60B373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828799" y="1228725"/>
+          <a:ext cx="323851" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 角を丸くする 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1AD56A2-4659-4116-9661-66474D846F78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8286750" y="9286875"/>
+          <a:ext cx="3524250" cy="2047875"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①に変更したい金額を入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>②のボタンを押下して最低賃金を変更</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD17C8D-54A4-4BAD-808B-3C1231CBC220}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="11306176"/>
+          <a:ext cx="1076325" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F08EB75-90DD-4387-9775-EFAC09CD4529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3819524" y="11087100"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FDCED9-E000-431C-9871-5749FC10712E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="11820526"/>
+          <a:ext cx="523875" cy="161924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC92DD9-592E-4282-8197-ECAC4C87ED8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419474" y="11763375"/>
+          <a:ext cx="325730" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -24905,7 +25972,7 @@
   <dimension ref="A1:BW49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE34" sqref="AE34"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
@@ -24916,166 +25983,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45177</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:50" ht="18.75" customHeight="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77">
-        <v>45180</v>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63">
+        <v>45181</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
     <row r="6" spans="1:50" ht="18.75" customHeight="1">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="2"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="43"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="50" t="s">
+      <c r="T6" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="52"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="37"/>
     </row>
     <row r="7" spans="1:50" ht="18.75" customHeight="1">
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="60"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="46"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="7"/>
       <c r="S7" s="8"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="55"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="40"/>
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
       <c r="AA7" s="10"/>
@@ -25125,22 +26192,22 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="11"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="35" t="s">
+      <c r="T9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="62"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="48"/>
       <c r="Y9" s="2"/>
       <c r="AB9" s="5"/>
-      <c r="AC9" s="35" t="s">
+      <c r="AC9" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="37"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="65"/>
     </row>
     <row r="10" spans="1:50" ht="18.75" customHeight="1">
       <c r="D10" s="10"/>
@@ -25159,20 +26226,20 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="13"/>
       <c r="S10" s="8"/>
-      <c r="T10" s="63"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="65"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="51"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="8"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="40"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
+      <c r="AG10" s="68"/>
     </row>
     <row r="11" spans="1:50" ht="18.75" customHeight="1">
       <c r="D11" s="10"/>
@@ -25205,39 +26272,39 @@
       <c r="O12" s="10"/>
       <c r="Q12" s="12"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="50" t="s">
+      <c r="T12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="52"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="37"/>
       <c r="AA12" s="29"/>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="35" t="s">
+      <c r="AC12" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="37"/>
+      <c r="AD12" s="64"/>
+      <c r="AE12" s="64"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="65"/>
     </row>
     <row r="13" spans="1:50" ht="18.75" customHeight="1">
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="55"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="40"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="8"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="40"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
+      <c r="AG13" s="68"/>
     </row>
     <row r="14" spans="1:50" ht="18.75" customHeight="1">
       <c r="E14" s="15"/>
@@ -25331,22 +26398,22 @@
       <c r="K18" s="15"/>
       <c r="Q18" s="12"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="35" t="s">
+      <c r="T18" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="37"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="65"/>
       <c r="Y18" s="2"/>
       <c r="AG18" s="5"/>
-      <c r="AH18" s="35" t="s">
+      <c r="AH18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="37"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="65"/>
       <c r="AX18" s="12"/>
     </row>
     <row r="19" spans="4:75" ht="18.75" customHeight="1">
@@ -25354,11 +26421,11 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="14"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="40"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="67"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="67"/>
+      <c r="X19" s="68"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
@@ -25368,11 +26435,11 @@
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
       <c r="AG19" s="8"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="40"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67"/>
+      <c r="AK19" s="67"/>
+      <c r="AL19" s="68"/>
       <c r="AX19" s="12"/>
     </row>
     <row r="20" spans="4:75" ht="18.75" customHeight="1">
@@ -25411,41 +26478,41 @@
       <c r="S24" s="17"/>
       <c r="U24" s="12"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="35" t="s">
+      <c r="AH24" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
-      <c r="AL24" s="37"/>
+      <c r="AI24" s="64"/>
+      <c r="AJ24" s="64"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="65"/>
       <c r="AM24" s="2"/>
       <c r="AV24" s="5"/>
-      <c r="AW24" s="35" t="s">
+      <c r="AW24" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="AX24" s="36"/>
-      <c r="AY24" s="36"/>
-      <c r="AZ24" s="36"/>
-      <c r="BA24" s="37"/>
+      <c r="AX24" s="64"/>
+      <c r="AY24" s="64"/>
+      <c r="AZ24" s="64"/>
+      <c r="BA24" s="65"/>
       <c r="BF24" s="5"/>
-      <c r="BG24" s="41" t="s">
+      <c r="BG24" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="42"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="43"/>
+      <c r="BH24" s="73"/>
+      <c r="BI24" s="73"/>
+      <c r="BJ24" s="73"/>
+      <c r="BK24" s="74"/>
       <c r="BM24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BR24" s="5"/>
-      <c r="BS24" s="35" t="s">
+      <c r="BS24" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="BT24" s="36"/>
-      <c r="BU24" s="36"/>
-      <c r="BV24" s="36"/>
-      <c r="BW24" s="37"/>
+      <c r="BT24" s="79"/>
+      <c r="BU24" s="79"/>
+      <c r="BV24" s="79"/>
+      <c r="BW24" s="80"/>
     </row>
     <row r="25" spans="4:75" ht="18.75" customHeight="1">
       <c r="D25" s="4"/>
@@ -25465,11 +26532,11 @@
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
       <c r="AG25" s="8"/>
-      <c r="AH25" s="38"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
-      <c r="AK25" s="39"/>
-      <c r="AL25" s="40"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="68"/>
       <c r="AM25" s="6"/>
       <c r="AN25" s="14"/>
       <c r="AO25" s="14"/>
@@ -25480,21 +26547,21 @@
       <c r="AT25" s="14"/>
       <c r="AU25" s="14"/>
       <c r="AV25" s="8"/>
-      <c r="AW25" s="38"/>
-      <c r="AX25" s="39"/>
-      <c r="AY25" s="39"/>
-      <c r="AZ25" s="39"/>
-      <c r="BA25" s="40"/>
+      <c r="AW25" s="66"/>
+      <c r="AX25" s="67"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="68"/>
       <c r="BB25" s="13"/>
       <c r="BC25" s="14"/>
       <c r="BD25" s="14"/>
       <c r="BE25" s="14"/>
       <c r="BF25" s="8"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="45"/>
-      <c r="BI25" s="45"/>
-      <c r="BJ25" s="45"/>
-      <c r="BK25" s="46"/>
+      <c r="BG25" s="75"/>
+      <c r="BH25" s="76"/>
+      <c r="BI25" s="76"/>
+      <c r="BJ25" s="76"/>
+      <c r="BK25" s="77"/>
       <c r="BL25" s="14"/>
       <c r="BM25" s="14"/>
       <c r="BN25" s="14"/>
@@ -25502,11 +26569,11 @@
       <c r="BP25" s="14"/>
       <c r="BQ25" s="14"/>
       <c r="BR25" s="8"/>
-      <c r="BS25" s="38"/>
-      <c r="BT25" s="39"/>
-      <c r="BU25" s="39"/>
-      <c r="BV25" s="39"/>
-      <c r="BW25" s="40"/>
+      <c r="BS25" s="81"/>
+      <c r="BT25" s="82"/>
+      <c r="BU25" s="82"/>
+      <c r="BV25" s="82"/>
+      <c r="BW25" s="83"/>
     </row>
     <row r="26" spans="4:75" ht="18.75" customHeight="1">
       <c r="D26" s="4"/>
@@ -25550,48 +26617,48 @@
     <row r="30" spans="4:75" ht="18.75" customHeight="1">
       <c r="Q30" s="12"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="35" t="s">
+      <c r="T30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="U30" s="36"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="37"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="65"/>
       <c r="AG30" s="5"/>
-      <c r="AH30" s="41" t="s">
+      <c r="AH30" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="AI30" s="42"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="42"/>
-      <c r="AL30" s="43"/>
+      <c r="AI30" s="73"/>
+      <c r="AJ30" s="73"/>
+      <c r="AK30" s="73"/>
+      <c r="AL30" s="74"/>
       <c r="AN30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AS30" s="5"/>
-      <c r="AT30" s="35" t="s">
+      <c r="AT30" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="AU30" s="36"/>
-      <c r="AV30" s="36"/>
-      <c r="AW30" s="36"/>
-      <c r="AX30" s="37"/>
+      <c r="AU30" s="64"/>
+      <c r="AV30" s="64"/>
+      <c r="AW30" s="64"/>
+      <c r="AX30" s="65"/>
     </row>
     <row r="31" spans="4:75" ht="18.75" customHeight="1">
       <c r="J31" s="25"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
       <c r="P31" s="26"/>
       <c r="R31" s="14"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="40"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="67"/>
+      <c r="V31" s="67"/>
+      <c r="W31" s="67"/>
+      <c r="X31" s="68"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
@@ -25601,11 +26668,11 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
       <c r="AG31" s="8"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="45"/>
-      <c r="AJ31" s="45"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="46"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="76"/>
+      <c r="AJ31" s="76"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="77"/>
       <c r="AM31" s="14"/>
       <c r="AN31" s="14"/>
       <c r="AO31" s="14"/>
@@ -25613,31 +26680,31 @@
       <c r="AQ31" s="14"/>
       <c r="AR31" s="14"/>
       <c r="AS31" s="8"/>
-      <c r="AT31" s="38"/>
-      <c r="AU31" s="39"/>
-      <c r="AV31" s="39"/>
-      <c r="AW31" s="39"/>
-      <c r="AX31" s="40"/>
+      <c r="AT31" s="66"/>
+      <c r="AU31" s="67"/>
+      <c r="AV31" s="67"/>
+      <c r="AW31" s="67"/>
+      <c r="AX31" s="68"/>
     </row>
     <row r="32" spans="4:75" ht="18.75" customHeight="1">
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
     </row>
     <row r="33" spans="10:38" ht="18.75" customHeight="1"/>
     <row r="34" spans="10:38" ht="18.75" customHeight="1"/>
     <row r="35" spans="10:38" ht="18.75" customHeight="1"/>
     <row r="36" spans="10:38" ht="18.75" customHeight="1">
       <c r="AG36" s="5"/>
-      <c r="AH36" s="35" t="s">
+      <c r="AH36" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="37"/>
+      <c r="AI36" s="64"/>
+      <c r="AJ36" s="64"/>
+      <c r="AK36" s="64"/>
+      <c r="AL36" s="65"/>
     </row>
     <row r="37" spans="10:38" ht="18.75" customHeight="1">
       <c r="Z37" s="14"/>
@@ -25648,27 +26715,27 @@
       <c r="AE37" s="14"/>
       <c r="AF37" s="14"/>
       <c r="AG37" s="8"/>
-      <c r="AH37" s="38"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
-      <c r="AK37" s="39"/>
-      <c r="AL37" s="40"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="67"/>
+      <c r="AJ37" s="67"/>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="68"/>
     </row>
     <row r="38" spans="10:38" ht="18.75" customHeight="1">
       <c r="J38" s="27"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="49"/>
-      <c r="O38" s="49"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="71"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
       <c r="P38" s="33"/>
     </row>
     <row r="39" spans="10:38" ht="18.75" customHeight="1">
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="49"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
     </row>
     <row r="40" spans="10:38" ht="18.75" customHeight="1"/>
     <row r="41" spans="10:38" ht="18.75" customHeight="1"/>
@@ -25682,9 +26749,25 @@
     <row r="49" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="BS24:BW25"/>
+    <mergeCell ref="AT30:AX31"/>
+    <mergeCell ref="BG24:BK25"/>
+    <mergeCell ref="T18:X19"/>
+    <mergeCell ref="AH18:AL19"/>
+    <mergeCell ref="AC9:AG10"/>
+    <mergeCell ref="K31:O32"/>
+    <mergeCell ref="AH24:AL25"/>
+    <mergeCell ref="AW24:BA25"/>
+    <mergeCell ref="K38:O39"/>
+    <mergeCell ref="T30:X31"/>
+    <mergeCell ref="AH30:AL31"/>
     <mergeCell ref="T12:X13"/>
     <mergeCell ref="AC12:AG13"/>
     <mergeCell ref="AH36:AL37"/>
+    <mergeCell ref="B6:F7"/>
+    <mergeCell ref="K6:O7"/>
+    <mergeCell ref="T6:X7"/>
+    <mergeCell ref="T9:X10"/>
     <mergeCell ref="A1:F4"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:T1"/>
@@ -25694,22 +26777,6 @@
     <mergeCell ref="K3:T3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="K4:T4"/>
-    <mergeCell ref="B6:F7"/>
-    <mergeCell ref="K6:O7"/>
-    <mergeCell ref="T6:X7"/>
-    <mergeCell ref="T9:X10"/>
-    <mergeCell ref="AC9:AG10"/>
-    <mergeCell ref="K31:O32"/>
-    <mergeCell ref="AH24:AL25"/>
-    <mergeCell ref="AW24:BA25"/>
-    <mergeCell ref="K38:O39"/>
-    <mergeCell ref="T30:X31"/>
-    <mergeCell ref="AH30:AL31"/>
-    <mergeCell ref="BS24:BW25"/>
-    <mergeCell ref="AT30:AX31"/>
-    <mergeCell ref="BG24:BK25"/>
-    <mergeCell ref="T18:X19"/>
-    <mergeCell ref="AH18:AL19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25719,7 +26786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A928701B-B20C-41BD-A53E-3364AD8D46FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755281AC-7BB3-4F41-B735-D462C28364F2}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25729,106 +26796,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
-        <v>13</v>
+      <c r="A1" s="52" t="s">
+        <v>14</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45180</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -25849,7 +26916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{755281AC-7BB3-4F41-B735-D462C28364F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A928701B-B20C-41BD-A53E-3364AD8D46FA}">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25859,106 +26926,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
-        <v>14</v>
+      <c r="A1" s="52" t="s">
+        <v>13</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45180</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -25989,106 +27056,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45180</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -26119,106 +27186,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45180</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -26249,106 +27316,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45180</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -26379,106 +27446,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:55">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:55">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45180</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:55">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:55">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
     <row r="12" spans="1:55">
       <c r="BC12" t="s">
@@ -26515,106 +27582,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45177</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -26645,106 +27712,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45177</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -26775,106 +27842,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45177</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
     <row r="17" customFormat="1"/>
     <row r="18" customFormat="1"/>
@@ -26937,106 +28004,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45177</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -27067,106 +28134,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45180</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
     <row r="43" spans="121:138">
       <c r="DQ43" t="s">
@@ -27213,106 +28280,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45180</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
     <row r="43" spans="121:138">
       <c r="DQ43" t="s">
@@ -27359,138 +28426,142 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45177</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63">
+        <v>45181</v>
+      </c>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
     <row r="96549" spans="1:6">
-      <c r="A96549" s="78"/>
-      <c r="B96549" s="78"/>
-      <c r="C96549" s="78"/>
-      <c r="D96549" s="78"/>
-      <c r="E96549" s="78"/>
-      <c r="F96549" s="78"/>
+      <c r="A96549" s="84"/>
+      <c r="B96549" s="84"/>
+      <c r="C96549" s="84"/>
+      <c r="D96549" s="84"/>
+      <c r="E96549" s="84"/>
+      <c r="F96549" s="84"/>
     </row>
     <row r="96550" spans="1:6">
-      <c r="A96550" s="78"/>
-      <c r="B96550" s="78"/>
-      <c r="C96550" s="78"/>
-      <c r="D96550" s="78"/>
-      <c r="E96550" s="78"/>
-      <c r="F96550" s="78"/>
+      <c r="A96550" s="84"/>
+      <c r="B96550" s="84"/>
+      <c r="C96550" s="84"/>
+      <c r="D96550" s="84"/>
+      <c r="E96550" s="84"/>
+      <c r="F96550" s="84"/>
     </row>
     <row r="96551" spans="1:6">
-      <c r="A96551" s="78"/>
-      <c r="B96551" s="78"/>
-      <c r="C96551" s="78"/>
-      <c r="D96551" s="78"/>
-      <c r="E96551" s="78"/>
-      <c r="F96551" s="78"/>
+      <c r="A96551" s="84"/>
+      <c r="B96551" s="84"/>
+      <c r="C96551" s="84"/>
+      <c r="D96551" s="84"/>
+      <c r="E96551" s="84"/>
+      <c r="F96551" s="84"/>
     </row>
     <row r="96552" spans="1:6">
-      <c r="A96552" s="78"/>
-      <c r="B96552" s="78"/>
-      <c r="C96552" s="78"/>
-      <c r="D96552" s="78"/>
-      <c r="E96552" s="78"/>
-      <c r="F96552" s="78"/>
+      <c r="A96552" s="84"/>
+      <c r="B96552" s="84"/>
+      <c r="C96552" s="84"/>
+      <c r="D96552" s="84"/>
+      <c r="E96552" s="84"/>
+      <c r="F96552" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -27522,106 +28593,106 @@
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="75" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76" t="s">
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="75" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="77">
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="63">
         <v>45180</v>
       </c>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="76"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="75" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
+      <c r="R4" s="62"/>
+      <c r="S4" s="62"/>
+      <c r="T4" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="9">
